--- a/data/descriptive_analysis.xlsx
+++ b/data/descriptive_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="use_type" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,6 @@
     <t>Publication Year</t>
   </si>
   <si>
-    <t>count</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -334,6 +330,9 @@
   </si>
   <si>
     <t>Source title</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
 </sst>
 </file>
@@ -428,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -455,6 +454,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,31 +1017,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>171</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>287</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>346</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>262</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2858,7 +2861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2874,199 +2877,199 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="41.4">
       <c r="A2" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="8">
         <v>32</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1">
       <c r="A3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="8">
         <v>14</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="8" customFormat="1" ht="27.6">
       <c r="A4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="8">
         <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="41.4">
       <c r="A5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="6">
         <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="6">
         <v>11</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="6">
         <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="6">
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="6">
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.6">
       <c r="A10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="6">
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="6">
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="6">
         <v>7</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="6">
         <v>6</v>
@@ -3074,7 +3077,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="6">
         <v>6</v>
@@ -3082,7 +3085,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="6">
         <v>6</v>
@@ -3090,7 +3093,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="6">
         <v>6</v>
@@ -3098,7 +3101,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="6">
         <v>6</v>
@@ -3106,7 +3109,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="6">
         <v>6</v>
@@ -3114,7 +3117,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="6">
         <v>5</v>
@@ -3122,7 +3125,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="6">
         <v>5</v>
@@ -3130,7 +3133,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="6">
         <v>5</v>
@@ -3138,7 +3141,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="6">
         <v>5</v>
@@ -3146,7 +3149,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="6">
         <v>5</v>
@@ -3154,7 +3157,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="6">
         <v>5</v>
@@ -3162,7 +3165,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="6">
         <v>5</v>
@@ -3170,7 +3173,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26" s="6">
         <v>4</v>
@@ -3178,7 +3181,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" s="6">
         <v>4</v>
@@ -3186,7 +3189,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="6">
         <v>4</v>
@@ -3194,7 +3197,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="6">
         <v>4</v>
@@ -3202,7 +3205,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="6">
         <v>4</v>
@@ -3210,7 +3213,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" s="6">
         <v>4</v>
@@ -3226,8 +3229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3239,23 +3242,23 @@
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>21</v>
+      <c r="B1" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.4" thickBot="1">
       <c r="A2" s="1">
         <v>2009</v>
       </c>
-      <c r="B2" s="2">
-        <v>14</v>
+      <c r="B2" s="12">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.4" thickBot="1">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="12">
         <v>18</v>
       </c>
     </row>
@@ -3263,15 +3266,15 @@
       <c r="A4" s="1">
         <v>2011</v>
       </c>
-      <c r="B4" s="2">
-        <v>37</v>
+      <c r="B4" s="12">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.4" thickBot="1">
       <c r="A5" s="1">
         <v>2012</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="12">
         <v>61</v>
       </c>
     </row>
@@ -3279,60 +3282,60 @@
       <c r="A6" s="1">
         <v>2013</v>
       </c>
-      <c r="B6" s="2">
-        <v>91</v>
+      <c r="B6" s="12">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.4" thickBot="1">
       <c r="A7" s="1">
         <v>2014</v>
       </c>
-      <c r="B7" s="2">
-        <v>171</v>
+      <c r="B7" s="12">
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.4" thickBot="1">
       <c r="A8" s="1">
         <v>2015</v>
       </c>
-      <c r="B8" s="2">
-        <v>287</v>
+      <c r="B8" s="12">
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.4" thickBot="1">
       <c r="A9" s="1">
         <v>2016</v>
       </c>
-      <c r="B9" s="2">
-        <v>346</v>
+      <c r="B9" s="12">
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.4" thickBot="1">
       <c r="A10" s="1">
         <v>2017</v>
       </c>
-      <c r="B10" s="2">
-        <v>262</v>
+      <c r="B10" s="12">
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.4" thickBot="1">
       <c r="A11" s="1">
         <v>2018</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12">
         <f>SUM(B2:B11)</f>
-        <v>1287</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1048576" spans="2:2">
       <c r="B1048576">
         <f>SUM(B2:B1048575)</f>
-        <v>2574</v>
+        <v>2458</v>
       </c>
     </row>
   </sheetData>
@@ -3362,18 +3365,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>159</v>
@@ -3384,7 +3387,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>54</v>
@@ -3395,7 +3398,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -3406,7 +3409,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>38</v>
@@ -3417,7 +3420,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -3428,7 +3431,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>1</v>
